--- a/biology/Zoologie/Baurubatrachus_pricei/Baurubatrachus_pricei.xlsx
+++ b/biology/Zoologie/Baurubatrachus_pricei/Baurubatrachus_pricei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baurubatrachus
-Baurubatrachus pricei, unique représentant du genre Baurubatrachus, est une espèce éteinte d'amphibiens de la famille des Ceratophryidae[1].
+Baurubatrachus pricei, unique représentant du genre Baurubatrachus, est une espèce éteinte d'amphibiens de la famille des Ceratophryidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baurubatrachus pricei a été découverte à Uberaba (Peirópolis) dans la Formation Marilia au Minas Gerais au Brésil. Cette espèce date du Maastrichtien au sommet du Crétacé supérieur.
 </t>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(pt) Báez &amp; Perí, 1989 : Baurubatrachus pricei, nov. gen. et sp., un anuro del Cretacico Superior de Minas Gerais, Brasil. Anais da Academia Brasileira de Ciencias, vol. 61, no 4, p. 447-458.</t>
         </is>
